--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SCORE_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SCORE_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD278A32-3A53-4023-B37B-537C2E0EC52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E7D40-9E57-4E67-88BE-35631D15F99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,16 +294,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +612,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -638,157 +638,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
@@ -819,11 +819,11 @@
       <c r="M7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A8" s="7">
@@ -925,29 +925,29 @@
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>10.5</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2">
         <f t="shared" ref="N11:N17" si="0">SUM(D11:M11)</f>
         <v>10.5</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A12" s="7">
@@ -956,27 +956,29 @@
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
+        <v>19.2</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+        <v>19.2</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A13" s="7">
@@ -985,27 +987,29 @@
       <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
+        <v>22.2</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+        <v>22.2</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A14" s="7">
@@ -1014,27 +1018,29 @@
       <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
+        <v>15.7</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+        <v>15.7</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A15" s="7">
@@ -1043,27 +1049,29 @@
       <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
+        <v>18</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A16" s="7">
@@ -1072,27 +1080,29 @@
       <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A17" s="7">
@@ -1101,27 +1111,29 @@
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+        <v>5.5</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.8">
       <c r="M18" s="5" t="s">
@@ -1129,7 +1141,7 @@
       </c>
       <c r="N18" s="6">
         <f>AVERAGE(N8:N17)</f>
-        <v>5.8</v>
+        <v>15.260000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.8">
@@ -1138,7 +1150,7 @@
       </c>
       <c r="N19" s="2">
         <f>_xlfn.STDEV.P(N8:N17)</f>
-        <v>7.4772989775720484</v>
+        <v>4.7438802683035659</v>
       </c>
     </row>
   </sheetData>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SCORE_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SCORE_405.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E7D40-9E57-4E67-88BE-35631D15F99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA96C524-CD15-4B30-92F9-5FAACD7FA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26670" yWindow="3345" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -612,32 +612,32 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="1"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
@@ -681,7 +681,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -785,7 +785,7 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -825,7 +825,7 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -841,7 +841,9 @@
       <c r="G8" s="2">
         <v>20.5</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
@@ -849,14 +851,14 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2">
         <f>SUM(D8:M8)</f>
-        <v>20.5</v>
+        <v>25.5</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -872,7 +874,9 @@
       <c r="G9" s="2">
         <v>14</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
@@ -880,14 +884,14 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2">
         <f>SUM(D9:M9)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -903,7 +907,9 @@
       <c r="G10" s="2">
         <v>13</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
@@ -911,14 +917,14 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2">
         <f>SUM(D10:M10)</f>
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -934,7 +940,9 @@
       <c r="G11" s="12">
         <v>10.5</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12">
+        <v>5</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -942,14 +950,14 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2">
         <f t="shared" ref="N11:N17" si="0">SUM(D11:M11)</f>
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -965,7 +973,9 @@
       <c r="G12" s="12">
         <v>19.2</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>5</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -973,14 +983,14 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>19.2</v>
+        <v>24.2</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -996,7 +1006,9 @@
       <c r="G13" s="12">
         <v>22.2</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>5</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -1004,14 +1016,14 @@
       <c r="M13" s="12"/>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>22.2</v>
+        <v>27.2</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -1027,7 +1039,9 @@
       <c r="G14" s="12">
         <v>15.7</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>5</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -1035,14 +1049,14 @@
       <c r="M14" s="12"/>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
-        <v>15.7</v>
+        <v>20.7</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -1058,7 +1072,9 @@
       <c r="G15" s="12">
         <v>18</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>3.75</v>
+      </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -1066,14 +1082,14 @@
       <c r="M15" s="12"/>
       <c r="N15" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21.75</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -1089,7 +1105,9 @@
       <c r="G16" s="12">
         <v>14</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>5</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -1097,14 +1115,14 @@
       <c r="M16" s="12"/>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -1120,7 +1138,9 @@
       <c r="G17" s="12">
         <v>5.5</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>2.5</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -1128,29 +1148,29 @@
       <c r="M17" s="12"/>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="6">
         <f>AVERAGE(N8:N17)</f>
-        <v>15.260000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.8">
+        <v>19.634999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N19" s="2">
         <f>_xlfn.STDEV.P(N8:N17)</f>
-        <v>4.7438802683035659</v>
+        <v>5.3707564644098342</v>
       </c>
     </row>
   </sheetData>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SCORE_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SCORE_405.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA96C524-CD15-4B30-92F9-5FAACD7FA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4697579E-E874-4ED5-A276-F91B37988509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26670" yWindow="3345" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="2595" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>ชื่อ-นามสกกุล</t>
   </si>
   <si>
-    <t>Quiz01(10)</t>
-  </si>
-  <si>
     <t>Midterm (25)</t>
   </si>
   <si>
@@ -69,15 +66,6 @@
     <t>FILNAL</t>
   </si>
   <si>
-    <t>WORK (5)</t>
-  </si>
-  <si>
-    <t>LAB (5)</t>
-  </si>
-  <si>
-    <t>Quiz02(10)</t>
-  </si>
-  <si>
     <t>MEAN</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
     <t>ใบรายชื่อนักศึกษา(ภาคเรียนที่ 2 ปีการศึกษา 2568)</t>
   </si>
   <si>
-    <t xml:space="preserve"> รหัสวิชา ENGCE121     วิชา โครงสร้างและสถาปัตยกรรมคอมพิวเตอร์ หน่วยกิต 3 กลุ่มวิชา ENGCE121_SEC_1</t>
-  </si>
-  <si>
     <t>66143206002-7</t>
   </si>
   <si>
@@ -154,6 +139,21 @@
   </si>
   <si>
     <t>นายปฎิพล  อ่องคำ</t>
+  </si>
+  <si>
+    <t>LAB (0)</t>
+  </si>
+  <si>
+    <t>WORK (0)</t>
+  </si>
+  <si>
+    <t>Quiz01(20)</t>
+  </si>
+  <si>
+    <t>Quiz02(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> รหัสวิชา ENGCE121     วิชา โครงสร้างและสถาปัตยกรรมคอมพิวเตอร์ หน่วยกิต 3</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -661,7 +661,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -736,33 +736,33 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -790,34 +790,34 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -830,14 +830,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>18.68</v>
+      </c>
       <c r="G8" s="2">
         <v>20.5</v>
       </c>
@@ -851,7 +853,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2">
         <f>SUM(D8:M8)</f>
-        <v>25.5</v>
+        <v>44.18</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -863,14 +865,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>7.2</v>
+      </c>
       <c r="G9" s="2">
         <v>14</v>
       </c>
@@ -884,7 +888,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2">
         <f>SUM(D9:M9)</f>
-        <v>19</v>
+        <v>26.2</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -896,19 +900,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>7.54</v>
+      </c>
       <c r="G10" s="2">
         <v>13</v>
       </c>
       <c r="H10" s="2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -917,7 +923,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2">
         <f>SUM(D10:M10)</f>
-        <v>15.5</v>
+        <v>24.54</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -929,14 +935,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12">
+        <v>6.8</v>
+      </c>
       <c r="G11" s="12">
         <v>10.5</v>
       </c>
@@ -950,7 +958,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2">
         <f t="shared" ref="N11:N17" si="0">SUM(D11:M11)</f>
-        <v>15.5</v>
+        <v>22.3</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -962,14 +970,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12">
+        <v>6.08</v>
+      </c>
       <c r="G12" s="12">
         <v>19.2</v>
       </c>
@@ -983,7 +993,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>24.2</v>
+        <v>30.28</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -995,14 +1005,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12">
+        <v>8.34</v>
+      </c>
       <c r="G13" s="12">
         <v>22.2</v>
       </c>
@@ -1016,7 +1028,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>27.2</v>
+        <v>35.54</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -1028,14 +1040,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12">
+        <v>7</v>
+      </c>
       <c r="G14" s="12">
         <v>15.7</v>
       </c>
@@ -1049,7 +1063,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
-        <v>20.7</v>
+        <v>27.7</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -1061,19 +1075,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12">
+        <v>6.14</v>
+      </c>
       <c r="G15" s="12">
         <v>18</v>
       </c>
       <c r="H15" s="12">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1082,7 +1098,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="2">
         <f t="shared" si="0"/>
-        <v>21.75</v>
+        <v>28.64</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -1094,14 +1110,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12">
+        <v>3.8</v>
+      </c>
       <c r="G16" s="12">
         <v>14</v>
       </c>
@@ -1115,7 +1133,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22.8</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -1127,19 +1145,21 @@
         <v>10</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12">
+        <v>8.14</v>
+      </c>
       <c r="G17" s="12">
         <v>5.5</v>
       </c>
       <c r="H17" s="12">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1148,7 +1168,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17.14</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -1157,20 +1177,20 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M18" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N18" s="6">
         <f>AVERAGE(N8:N17)</f>
-        <v>19.634999999999998</v>
+        <v>27.931999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M19" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N19" s="2">
         <f>_xlfn.STDEV.P(N8:N17)</f>
-        <v>5.3707564644098342</v>
+        <v>7.1901109866260056</v>
       </c>
     </row>
   </sheetData>
